--- a/config_1.26/fish_3d_yutu_random_3.xlsx
+++ b/config_1.26/fish_3d_yutu_random_3.xlsx
@@ -413,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +470,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,9 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1387,7 +1378,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1804,11 +1795,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="G17" s="24">
-        <v>1611014400</v>
-      </c>
-      <c r="H17" s="24">
-        <v>1611590399</v>
+      <c r="G17" s="20">
+        <v>1611619200</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1828,11 +1819,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="G18" s="24">
-        <v>1611014400</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1611590399</v>
+      <c r="G18" s="20">
+        <v>1611619200</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1852,11 +1843,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="23"/>
-      <c r="G19" s="24">
-        <v>1611014400</v>
-      </c>
-      <c r="H19" s="24">
-        <v>1611590399</v>
+      <c r="G19" s="20">
+        <v>1611619200</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1876,11 +1867,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="23"/>
-      <c r="G20" s="24">
-        <v>1611014400</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1611590399</v>
+      <c r="G20" s="20">
+        <v>1611619200</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>
